--- a/InputData/elec/NGEpUO/Nonfuel GHG Emis per Unit Output.xlsx
+++ b/InputData/elec/NGEpUO/Nonfuel GHG Emis per Unit Output.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\US\Updated Input Data for v1.2.4\Files\Elec\NGEpUO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="15600" windowHeight="11310"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="15600" windowHeight="11310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="NGEpUO" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="55">
-  <si>
-    <t>coal</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
   <si>
     <t>nuclear</t>
   </si>
@@ -26,9 +28,6 @@
     <t>hydro</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
     <t>biomass</t>
   </si>
   <si>
@@ -180,12 +179,30 @@
   </si>
   <si>
     <t>Assumed to be the same as natural gas nonpeaker</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>Assumed to be the same as hard coal</t>
+  </si>
+  <si>
+    <t>Assumed to be the same as onshore wind, per http://www.nrel.gov/analysis/sustain_lca_wind.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,6 +314,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -344,7 +364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,7 +399,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -588,9 +608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -602,7 +624,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -610,38 +632,38 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2">
         <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2">
         <f>B4/1000</f>
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2">
         <v>1999</v>
@@ -650,70 +672,70 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2">
         <v>68.599999999999994</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2">
         <f>B11/1000</f>
         <v>6.8599999999999994E-2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2">
         <v>2000</v>
@@ -721,70 +743,70 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2">
         <v>14.35</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2">
         <f>B18/1000</f>
         <v>1.435E-2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2">
         <v>2012</v>
@@ -792,67 +814,67 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
         <v>6.6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2">
         <f>B25/1000</f>
         <v>6.6E-3</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2">
         <v>2012</v>
@@ -860,67 +882,67 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2">
         <v>11</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2">
         <f>B32/1000</f>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2">
         <v>2012</v>
@@ -928,67 +950,67 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B39" s="2">
         <v>45</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2">
         <f>B39/1000</f>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40" s="2">
         <v>2012</v>
@@ -996,58 +1018,58 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B46" s="2">
         <f>B39</f>
         <v>45</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B47" s="2">
         <f>B40</f>
@@ -1056,38 +1078,38 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B53" s="2">
         <v>46</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B54" s="2">
         <f>B53/1000</f>
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D54" s="2">
         <v>1997</v>
@@ -1095,36 +1117,36 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C55" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C57" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C58" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -1132,65 +1154,65 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B60" s="2">
         <v>50</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B61" s="2">
         <f>B60/1000</f>
         <v>0.05</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C65" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -1198,19 +1220,19 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B67" s="2">
         <f>B4</f>
         <v>26</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B68" s="2">
         <f>B5</f>
@@ -1219,7 +1241,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -1227,23 +1249,81 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B74" s="2">
         <f>B11</f>
         <v>68.599999999999994</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B75" s="2">
         <f>B12</f>
         <v>6.8599999999999994E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="2">
+        <f>B4</f>
+        <v>26</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" s="2">
+        <f>B5</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" s="2">
+        <f>B32</f>
+        <v>11</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" s="2">
+        <f>B33</f>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1267,9 +1347,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1279,12 +1361,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <f>About!B5</f>
@@ -1293,7 +1375,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <f>About!B12</f>
@@ -1302,7 +1384,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <f>About!B19</f>
@@ -1311,7 +1393,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <f>About!B26</f>
@@ -1320,7 +1402,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B6">
         <f>About!B33</f>
@@ -1329,7 +1411,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <f>About!B40</f>
@@ -1338,7 +1420,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <f>About!B47</f>
@@ -1347,7 +1429,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <f>About!B54</f>
@@ -1356,7 +1438,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="10">
         <f>About!B61</f>
@@ -1365,7 +1447,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <f>About!B68</f>
@@ -1374,11 +1456,29 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <f>About!B75</f>
         <v>6.8599999999999994E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <f>About!B81</f>
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14">
+        <f>About!B87</f>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
